--- a/lab6/experiment3DataB_2.xlsx
+++ b/lab6/experiment3DataB_2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="experiment3Data.csv" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -8440,11 +8440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113032376"/>
-        <c:axId val="2113035528"/>
+        <c:axId val="2144845480"/>
+        <c:axId val="2144851352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113032376"/>
+        <c:axId val="2144845480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,12 +8478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113035528"/>
+        <c:crossAx val="2144851352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113035528"/>
+        <c:axId val="2144851352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8501,7 +8501,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Output Current</a:t>
+                  <a:t>Output Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8509,11 +8509,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113032376"/>
+        <c:crossAx val="2144845480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8534,7 +8534,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -8545,7 +8545,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8563429" cy="5823857"/>
+    <xdr:ext cx="8570280" cy="5826014"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8893,7 +8893,7 @@
   <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E502"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
